--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/he_wang_uipath_com/Documents/Documents/UiPath/NER_Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="8_{8F923E0A-DC6D-4BFA-8D32-959117BE8BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5C748C0-31D2-48EE-B86A-4B9FF03A3EDF}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="8_{8F923E0A-DC6D-4BFA-8D32-959117BE8BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{690B8472-C8A9-4145-A67D-1E39024A974C}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="348" windowWidth="15360" windowHeight="8124" xr2:uid="{19432217-6069-4ECC-9443-D7ACF3E67193}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3768" windowHeight="948" xr2:uid="{19432217-6069-4ECC-9443-D7ACF3E67193}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="256">
   <si>
     <t>Gender</t>
   </si>
@@ -88,9 +88,6 @@
     <t>resides in New Zealand</t>
   </si>
   <si>
-    <t>4th of the 1st 1956</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -797,6 +794,15 @@
   </si>
   <si>
     <t>Steve</t>
+  </si>
+  <si>
+    <t>23rd of February 1976</t>
+  </si>
+  <si>
+    <t>2 Miller St glenholme</t>
+  </si>
+  <si>
+    <t>Mary</t>
   </si>
 </sst>
 </file>
@@ -1213,30 +1219,36 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.98969799280166604</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>0.84543532133102395</v>
+        <v>0.99372673034668002</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="F2">
-        <v>0.98182642459869396</v>
+        <v>0.86470597982406605</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="H2">
-        <v>0.98374962806701705</v>
+        <v>0.976706743240356</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2">
+        <v>0.99189656972885099</v>
+      </c>
+      <c r="K2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2">
+        <v>0.98750823736190796</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0.94801002740859996</v>
@@ -1254,19 +1266,19 @@
         <v>0.97798174619674705</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>0.99006760120391801</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <v>0.430196493864059</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>0.62026464939117398</v>
@@ -1292,7 +1304,7 @@
         <v>0.93524050712585405</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>0.97772866487503096</v>
@@ -1314,7 +1326,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0.98482125997543302</v>
@@ -1326,13 +1338,13 @@
         <v>0.98657321929931596</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>0.99000006914138805</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>0.74772208929061901</v>
@@ -1346,7 +1358,7 @@
         <v>0.97140514850616499</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0.770541131496429</v>
@@ -1358,7 +1370,7 @@
         <v>0.78133338689804099</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>0.44400477409362799</v>
@@ -1372,7 +1384,7 @@
         <v>0.97871553897857699</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>0.96900105476379395</v>
@@ -1384,7 +1396,7 @@
         <v>0.95461881160736095</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>0.71574443578720104</v>
@@ -1396,7 +1408,7 @@
         <v>0.91967475414276101</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8">
         <v>0.88847005367279097</v>
@@ -1410,13 +1422,13 @@
         <v>0.98636651039123502</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>0.56635284423828103</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>0.95579689741134599</v>
@@ -1424,7 +1436,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11">
         <v>0.57863634824752797</v>
@@ -1432,19 +1444,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>0.89561140537261996</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0.97970062494277999</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12">
         <v>0.98840206861496005</v>
@@ -1452,31 +1464,31 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0.96907246112823497</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>0.93129569292068504</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>0.81539458036422696</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>0.84975713491439797</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13">
         <v>0.69784957170486495</v>
@@ -1484,19 +1496,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0.96357464790344205</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>0.92680650949478105</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14">
         <v>0.61366164684295699</v>
@@ -1510,31 +1522,31 @@
         <v>0.980044186115265</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>0.46994522213935902</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>0.63286221027374301</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <v>0.79358512163162198</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15">
         <v>0.98640519380569502</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>0.58873111009597801</v>
@@ -1542,13 +1554,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.96677631139755205</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16">
         <v>0.98484182357788097</v>
@@ -1568,13 +1580,13 @@
         <v>0.90324026346206698</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17">
         <v>0.99070072174072299</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>0.86904406547546398</v>
@@ -1588,19 +1600,19 @@
         <v>0.82519847154617298</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>0.94978076219558705</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18">
         <v>0.98697042465210005</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18">
         <v>0.66753375530242898</v>
@@ -1608,7 +1620,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0.93802797794341997</v>
@@ -1626,19 +1638,19 @@
         <v>0.97725242376327504</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <v>0.65074461698532104</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L19">
         <v>0.84980148077011097</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>0.91983336210250899</v>
@@ -1646,37 +1658,37 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>0.95210492610931396</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>0.829456686973572</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0.91193795204162598</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20">
         <v>0.62764620780944802</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>0.97673594951629605</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N20">
         <v>0.94052767753601096</v>
@@ -1690,25 +1702,25 @@
         <v>0.989790499210358</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21">
         <v>0.871360003948212</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21">
         <v>0.49754843115806602</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21">
         <v>0.95822614431381203</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>0.68079555034637496</v>
@@ -1716,7 +1728,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>0.94956141710281405</v>
@@ -1734,13 +1746,13 @@
         <v>0.96466976404190097</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J22">
         <v>0.87883746623992898</v>
       </c>
       <c r="K22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L22">
         <v>0.90328568220138605</v>
@@ -1748,7 +1760,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0.572162985801697</v>
@@ -1760,13 +1772,13 @@
         <v>0.51230311393737804</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23">
         <v>0.98318910598754905</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L23">
         <v>0.98241007328033403</v>
@@ -1780,19 +1792,19 @@
         <v>0.73155808448791504</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>0.79499638080596902</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>0.96558225154876698</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24">
         <v>0.44058158993721003</v>
@@ -1806,25 +1818,25 @@
         <v>0.88738709688186601</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>0.81102454662322998</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25">
         <v>0.83801358938217196</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L25">
         <v>0.93449735641479503</v>
       </c>
       <c r="M25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>0.97214150428771995</v>
@@ -1832,7 +1844,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>0.93115234375</v>
@@ -1844,7 +1856,7 @@
         <v>0.90775537490844704</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L26">
         <v>0.94583052396774303</v>
@@ -1870,7 +1882,7 @@
         <v>0.69456690549850497</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27">
         <v>0.98604494333267201</v>
@@ -1896,19 +1908,19 @@
         <v>0.59838134050369296</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28">
         <v>0.99031317234039296</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J28">
         <v>0.68020623922348</v>
       </c>
       <c r="K28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L28">
         <v>0.98225146532058705</v>
@@ -1922,13 +1934,13 @@
         <v>0.95296186208724998</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>0.48591995239257801</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L29">
         <v>0.66258150339126598</v>
@@ -1942,7 +1954,7 @@
         <v>0.46299672126769997</v>
       </c>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L30">
         <v>0.98454266786575295</v>
@@ -1950,7 +1962,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>0.97355121374130205</v>
@@ -1962,19 +1974,19 @@
         <v>0.50504684448242199</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31">
         <v>0.98684328794479403</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J31">
         <v>0.76504343748092696</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L31">
         <v>0.86906307935714699</v>
@@ -1982,13 +1994,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>0.98154586553573597</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32">
         <v>0.93549865484237704</v>
@@ -2000,13 +2012,13 @@
         <v>0.66939860582351696</v>
       </c>
       <c r="K32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L32">
         <v>0.79865497350692705</v>
       </c>
       <c r="M32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N32">
         <v>0.75187689065933205</v>
@@ -2032,13 +2044,13 @@
         <v>0.66849398612976096</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33">
         <v>0.98625355958938599</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L33">
         <v>0.99324822425842296</v>
@@ -2046,7 +2058,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0.977444648742676</v>
@@ -2058,13 +2070,13 @@
         <v>0.97819042205810502</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34">
         <v>0.96156859397888195</v>
       </c>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L34">
         <v>0.88612622022628795</v>
@@ -2072,13 +2084,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35">
         <v>0.58516710996627797</v>
       </c>
       <c r="M35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N35">
         <v>0.83063006401062001</v>
@@ -2098,13 +2110,13 @@
         <v>0.95344376564025901</v>
       </c>
       <c r="K36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L36">
         <v>0.95502346754074097</v>
       </c>
       <c r="M36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N36">
         <v>0.67743968963623002</v>
@@ -2112,7 +2124,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>0.95579963922500599</v>
@@ -2124,19 +2136,19 @@
         <v>0.97511625289917003</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <v>0.98105317354202304</v>
       </c>
       <c r="K37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L37">
         <v>0.95190179347991899</v>
       </c>
       <c r="M37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N37">
         <v>0.84860020875930797</v>
@@ -2150,7 +2162,7 @@
         <v>0.98539739847183205</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38">
         <v>0.39347484707832298</v>
@@ -2170,31 +2182,31 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0.97055691480636597</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39">
         <v>0.58969539403915405</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39">
         <v>0.53598320484161399</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H39">
         <v>0.99113410711288497</v>
       </c>
       <c r="K39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L39">
         <v>0.89490503072738603</v>
@@ -2202,7 +2214,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>0.95650619268417403</v>
@@ -2216,19 +2228,19 @@
         <v>0.490685194730759</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41">
         <v>0.64207559823989901</v>
       </c>
       <c r="K41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L41">
         <v>0.50173288583755504</v>
       </c>
       <c r="M41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N41">
         <v>0.82389575242996205</v>
@@ -2236,13 +2248,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0.91523164510726895</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H42">
         <v>0.91768264770507801</v>
@@ -2250,7 +2262,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0.98454546928405795</v>
@@ -2262,7 +2274,7 @@
         <v>0.772641241550446</v>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H43">
         <v>0.98653656244277999</v>
@@ -2274,7 +2286,7 @@
         <v>0.70372128486633301</v>
       </c>
       <c r="K43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L43">
         <v>0.98315411806106601</v>
@@ -2282,7 +2294,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0.88586449623107899</v>
@@ -2294,31 +2306,31 @@
         <v>0.96241462230682395</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F44">
         <v>0.85834497213363603</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H44">
         <v>0.99000787734985396</v>
       </c>
       <c r="I44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J44">
         <v>0.885198473930359</v>
       </c>
       <c r="K44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L44">
         <v>0.88177967071533203</v>
       </c>
       <c r="M44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N44">
         <v>0.49590295553207397</v>
@@ -2332,13 +2344,13 @@
         <v>0.63808983564376798</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H45">
         <v>0.90553802251815796</v>
       </c>
       <c r="M45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N45">
         <v>0.69705039262771595</v>
@@ -2358,7 +2370,7 @@
         <v>0.98526602983474698</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H46">
         <v>0.92165046930313099</v>
@@ -2370,13 +2382,13 @@
         <v>0.76290637254714999</v>
       </c>
       <c r="K46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L46">
         <v>0.56467813253402699</v>
       </c>
       <c r="M46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N46">
         <v>0.56299203634262096</v>
@@ -2384,19 +2396,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F47">
         <v>0.94000065326690696</v>
       </c>
       <c r="G47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H47">
         <v>0.99083286523819003</v>
       </c>
       <c r="K47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L47">
         <v>0.76632422208786</v>
@@ -2410,19 +2422,19 @@
         <v>0.960035860538483</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H48">
         <v>0.56670081615447998</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J48">
         <v>0.95605432987213101</v>
       </c>
       <c r="K48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L48">
         <v>0.98803210258483898</v>
@@ -2430,7 +2442,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N49">
         <v>0.77613323926925704</v>
@@ -2438,13 +2450,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>0.98021644353866599</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50">
         <v>0.85202628374099698</v>
@@ -2456,13 +2468,13 @@
         <v>0.92249470949172996</v>
       </c>
       <c r="G50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H50">
         <v>0.976465284824371</v>
       </c>
       <c r="K50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L50">
         <v>0.98995870351791404</v>
@@ -2482,13 +2494,13 @@
         <v>0.98571902513503995</v>
       </c>
       <c r="G51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H51">
         <v>0.98792821168899503</v>
       </c>
       <c r="K51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L51">
         <v>0.92249614000320401</v>
@@ -2514,7 +2526,7 @@
         <v>0.489212155342102</v>
       </c>
       <c r="K52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L52">
         <v>0.98714476823806796</v>
@@ -2528,13 +2540,13 @@
         <v>0.91925978660583496</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53">
         <v>0.94105929136276201</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H53">
         <v>0.99093401432037398</v>
@@ -2546,7 +2558,7 @@
         <v>0.48264941573143</v>
       </c>
       <c r="K53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L53">
         <v>0.95640397071838401</v>
@@ -2560,19 +2572,19 @@
         <v>0.85488033294677701</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>0.967188000679016</v>
       </c>
       <c r="G54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H54">
         <v>0.99158561229705799</v>
       </c>
       <c r="K54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L54">
         <v>0.95369166135787997</v>
@@ -2580,7 +2592,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L56">
         <v>0.55441766977310203</v>
@@ -2606,13 +2618,13 @@
         <v>0.93106812238693204</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H58">
         <v>0.9918212890625</v>
       </c>
       <c r="K58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L58">
         <v>0.50700265169143699</v>
@@ -2632,13 +2644,13 @@
         <v>0.97359383106231701</v>
       </c>
       <c r="I59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J59">
         <v>0.98141092061996504</v>
       </c>
       <c r="K59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L59">
         <v>0.77895855903625499</v>
@@ -2646,13 +2658,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
         <v>0.91565895080566395</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60">
         <v>0.57601618766784701</v>
@@ -2678,25 +2690,25 @@
         <v>0.72397422790527299</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F61">
         <v>0.544719219207764</v>
       </c>
       <c r="G61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H61">
         <v>0.99149137735366799</v>
       </c>
       <c r="I61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J61">
         <v>0.98841524124145497</v>
       </c>
       <c r="K61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L61">
         <v>0.72072440385818504</v>
@@ -2704,7 +2716,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62">
         <v>0.97202038764953602</v>
@@ -2716,19 +2728,19 @@
         <v>0.93924599885940596</v>
       </c>
       <c r="G62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H62">
         <v>0.99059641361236594</v>
       </c>
       <c r="K62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L62">
         <v>0.53311568498611495</v>
       </c>
       <c r="M62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N62">
         <v>0.92323404550552401</v>
@@ -2742,19 +2754,19 @@
         <v>0.54234534502029397</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H63">
         <v>0.96552658081054699</v>
       </c>
       <c r="K63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L63">
         <v>0.34495154023170499</v>
       </c>
       <c r="M63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N63">
         <v>0.70886886119842496</v>
@@ -2768,19 +2780,19 @@
         <v>0.89466786384582497</v>
       </c>
       <c r="G64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H64">
         <v>0.69120627641677901</v>
       </c>
       <c r="I64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J64">
         <v>0.90107798576355003</v>
       </c>
       <c r="M64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N64">
         <v>0.74662327766418501</v>
@@ -2806,13 +2818,13 @@
         <v>0.98369044065475497</v>
       </c>
       <c r="I65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J65">
         <v>0.807381451129913</v>
       </c>
       <c r="K65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L65">
         <v>0.865001320838928</v>
@@ -2820,25 +2832,25 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66">
         <v>0.98241490125656095</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66">
         <v>0.81935304403305098</v>
       </c>
       <c r="K66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L66">
         <v>0.35959538817405701</v>
       </c>
       <c r="M66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N66">
         <v>0.978124499320984</v>
@@ -2858,25 +2870,25 @@
         <v>0.93303757905960105</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F67">
         <v>0.49406614899635298</v>
       </c>
       <c r="G67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H67">
         <v>0.95349740982055697</v>
       </c>
       <c r="I67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J67">
         <v>0.64455014467239402</v>
       </c>
       <c r="K67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L67">
         <v>0.95822823047637895</v>
@@ -2890,13 +2902,13 @@
         <v>0.952817022800446</v>
       </c>
       <c r="K70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L70">
         <v>0.92975896596908603</v>
       </c>
       <c r="M70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N70">
         <v>0.98583763837814298</v>
@@ -2904,7 +2916,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71">
         <v>0.96807557344436601</v>
@@ -2916,13 +2928,13 @@
         <v>0.96459507942199696</v>
       </c>
       <c r="K71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L71">
         <v>0.98702907562255904</v>
       </c>
       <c r="M71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N71">
         <v>0.84688758850097701</v>
@@ -2942,7 +2954,7 @@
         <v>0.92730796337127697</v>
       </c>
       <c r="K72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L72">
         <v>0.97311609983444203</v>
@@ -2950,19 +2962,19 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73">
         <v>0.98280990123748802</v>
       </c>
       <c r="G73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H73">
         <v>0.990553438663483</v>
       </c>
       <c r="K73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L73">
         <v>0.87121838331222501</v>
@@ -2970,7 +2982,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L74">
         <v>0.85556739568710305</v>
@@ -2984,13 +2996,13 @@
         <v>0.93637490272521995</v>
       </c>
       <c r="G75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H75">
         <v>0.96137839555740401</v>
       </c>
       <c r="I75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J75">
         <v>0.406154274940491</v>
@@ -3010,19 +3022,19 @@
         <v>0.98885333538055398</v>
       </c>
       <c r="I76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J76">
         <v>0.98649579286575295</v>
       </c>
       <c r="K76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L76">
         <v>0.98324292898178101</v>
       </c>
       <c r="M76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N76">
         <v>0.41632929444312999</v>
@@ -3030,13 +3042,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L77">
         <v>0.85503113269805897</v>
       </c>
       <c r="M77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N77">
         <v>0.83999723196029696</v>
@@ -3056,13 +3068,13 @@
         <v>0.97807019948959395</v>
       </c>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F78">
         <v>0.58935177326202404</v>
       </c>
       <c r="K78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L78">
         <v>0.84529572725295998</v>
@@ -3076,25 +3088,25 @@
         <v>0.89553987979888905</v>
       </c>
       <c r="G79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H79">
         <v>0.837213695049286</v>
       </c>
       <c r="I79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J79">
         <v>0.96132969856262196</v>
       </c>
       <c r="K79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L79">
         <v>0.91678047180175803</v>
       </c>
       <c r="M79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N79">
         <v>0.90404254198074296</v>
@@ -3108,19 +3120,19 @@
         <v>0.97324490547180198</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D80">
         <v>0.76604825258255005</v>
       </c>
       <c r="G80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H80">
         <v>0.98942542076110795</v>
       </c>
       <c r="K80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L80">
         <v>0.70345312356948897</v>
@@ -3128,7 +3140,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <v>0.98079931735992398</v>
@@ -3140,19 +3152,19 @@
         <v>0.96003443002700795</v>
       </c>
       <c r="G81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H81">
         <v>0.93230289220809903</v>
       </c>
       <c r="I81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J81">
         <v>0.96360051631927501</v>
       </c>
       <c r="M81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N81">
         <v>0.90577590465545699</v>
@@ -3178,19 +3190,19 @@
         <v>0.95276045799255404</v>
       </c>
       <c r="G82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H82">
         <v>0.98815208673477195</v>
       </c>
       <c r="K82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L82">
         <v>0.89313900470733598</v>
       </c>
       <c r="M82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N82">
         <v>0.49063825607299799</v>
@@ -3198,13 +3210,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J83">
         <v>0.98316055536270097</v>
       </c>
       <c r="K83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L83">
         <v>0.65263861417770397</v>
@@ -3218,19 +3230,19 @@
         <v>0.90541082620620705</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D84">
         <v>0.938177049160004</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L84">
         <v>0.97923034429550204</v>
       </c>
       <c r="M84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N84">
         <v>0.49889820814132702</v>
@@ -3238,7 +3250,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85">
         <v>0.96679103374481201</v>
@@ -3250,13 +3262,13 @@
         <v>0.56497180461883501</v>
       </c>
       <c r="K85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L85">
         <v>0.94643133878707897</v>
       </c>
       <c r="M85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N85">
         <v>0.51665443181991599</v>
@@ -3264,13 +3276,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H86">
         <v>0.76456981897354104</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L86">
         <v>0.94223701953887895</v>
@@ -3278,19 +3290,19 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88">
         <v>0.92778068780899003</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F88">
         <v>0.80411970615386996</v>
       </c>
       <c r="G88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H88">
         <v>0.98248183727264404</v>
@@ -3310,19 +3322,19 @@
         <v>0.98451751470565796</v>
       </c>
       <c r="G89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H89">
         <v>0.97429490089416504</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L89">
         <v>0.50921267271041903</v>
       </c>
       <c r="M89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N89">
         <v>0.61720651388168302</v>
@@ -3330,13 +3342,13 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H91">
         <v>0.46851316094398499</v>
       </c>
       <c r="K91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L91">
         <v>0.98276847600936901</v>
@@ -3350,7 +3362,7 @@
         <v>0.63214027881622303</v>
       </c>
       <c r="K92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L92">
         <v>0.97626590728759799</v>
@@ -3358,7 +3370,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B93">
         <v>0.95617657899856601</v>
@@ -3370,7 +3382,7 @@
         <v>0.98652726411819502</v>
       </c>
       <c r="K93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L93">
         <v>0.70122247934341397</v>
@@ -3378,25 +3390,25 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94">
         <v>0.97810012102127097</v>
       </c>
       <c r="E94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F94">
         <v>0.78881126642227195</v>
       </c>
       <c r="K94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L94">
         <v>0.97122228145599399</v>
       </c>
       <c r="M94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N94">
         <v>0.43452253937721302</v>
@@ -3410,19 +3422,19 @@
         <v>0.98183661699295</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95">
         <v>0.96363383531570401</v>
       </c>
       <c r="K95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L95">
         <v>0.84384727478027299</v>
       </c>
       <c r="M95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N95">
         <v>0.660217225551605</v>
@@ -3430,7 +3442,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L96">
         <v>0.71058374643325795</v>
@@ -3438,7 +3450,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L97">
         <v>0.77514904737472501</v>
@@ -3446,7 +3458,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98">
         <v>0.92869311571121205</v>
@@ -3460,7 +3472,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L99">
         <v>0.66772848367690996</v>
@@ -3480,25 +3492,25 @@
         <v>0.91061806678771995</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F100">
         <v>0.75282567739486705</v>
       </c>
       <c r="I100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J100">
         <v>0.70379233360290505</v>
       </c>
       <c r="K100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L100">
         <v>0.967695832252502</v>
       </c>
       <c r="M100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N100">
         <v>0.72190111875534102</v>
@@ -3512,31 +3524,31 @@
         <v>0.980096995830536</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D101">
         <v>0.51993006467819203</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F101">
         <v>0.49474772810936002</v>
       </c>
       <c r="G101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H101">
         <v>0.71867728233337402</v>
       </c>
       <c r="K101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L101">
         <v>0.50522440671920799</v>
       </c>
       <c r="M101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N101">
         <v>0.451026290655136</v>
@@ -3544,7 +3556,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L102">
         <v>0.82974743843078602</v>
@@ -3558,7 +3570,7 @@
         <v>0.94187277555465698</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103">
         <v>0.90708136558532704</v>
@@ -3572,7 +3584,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L104">
         <v>0.651322841644287</v>
@@ -3580,25 +3592,25 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B105">
         <v>0.97285199165344205</v>
       </c>
       <c r="C105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D105">
         <v>0.52113860845565796</v>
       </c>
       <c r="E105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F105">
         <v>0.85362988710403398</v>
       </c>
       <c r="G105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H105">
         <v>0.56572133302688599</v>
@@ -3618,25 +3630,25 @@
         <v>0.97095608711242698</v>
       </c>
       <c r="G106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H106">
         <v>0.72361320257186901</v>
       </c>
       <c r="I106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J106">
         <v>0.98933929204940796</v>
       </c>
       <c r="K106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L106">
         <v>0.95235460996627797</v>
       </c>
       <c r="M106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N106">
         <v>0.44328948855400102</v>
@@ -3644,7 +3656,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B107">
         <v>0.85571223497390703</v>
@@ -3656,13 +3668,13 @@
         <v>0.97532755136489901</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F107">
         <v>0.84243017435073897</v>
       </c>
       <c r="G107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H107">
         <v>0.99087649583816495</v>
@@ -3670,13 +3682,13 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B108">
         <v>0.92096269130706798</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D108">
         <v>0.64297264814376798</v>
@@ -3688,13 +3700,13 @@
         <v>0.70564669370651201</v>
       </c>
       <c r="G108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H108">
         <v>0.95733547210693404</v>
       </c>
       <c r="K108" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L108">
         <v>0.84054392576217696</v>
@@ -3702,7 +3714,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B109">
         <v>0.98029893636703502</v>
@@ -3714,13 +3726,13 @@
         <v>0.71869349479675304</v>
       </c>
       <c r="G109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H109">
         <v>0.98657900094985995</v>
       </c>
       <c r="K109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L109">
         <v>0.97236418724060103</v>
@@ -3740,7 +3752,7 @@
         <v>0.98219174146652199</v>
       </c>
       <c r="M110" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N110">
         <v>0.93219733238220204</v>
@@ -3748,13 +3760,13 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B111">
         <v>0.98051947355270397</v>
       </c>
       <c r="G111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H111">
         <v>0.836436748504639</v>
@@ -3766,7 +3778,7 @@
         <v>0.80487149953842196</v>
       </c>
       <c r="K111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L111">
         <v>0.84027236700057995</v>
@@ -3780,7 +3792,7 @@
         <v>0.94689977169036899</v>
       </c>
       <c r="K112" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L112">
         <v>0.97104227542877197</v>
@@ -3794,13 +3806,13 @@
         <v>0.98659026622772195</v>
       </c>
       <c r="G113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H113">
         <v>0.82890385389328003</v>
       </c>
       <c r="M113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N113">
         <v>0.91508370637893699</v>
@@ -3820,13 +3832,13 @@
         <v>0.98146098852157604</v>
       </c>
       <c r="G114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H114">
         <v>0.99275004863739003</v>
       </c>
       <c r="K114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L114">
         <v>0.78693681955337502</v>
@@ -3840,7 +3852,7 @@
         <v>0.71724462509155296</v>
       </c>
       <c r="K115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L115">
         <v>0.69880878925323497</v>
@@ -3854,19 +3866,19 @@
         <v>0.96786892414092995</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F116">
         <v>0.31457862257957497</v>
       </c>
       <c r="K116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L116">
         <v>0.97980999946594205</v>
       </c>
       <c r="M116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N116">
         <v>0.94562351703643799</v>
@@ -3880,13 +3892,13 @@
         <v>0.92816686630249001</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D117">
         <v>0.89441889524459794</v>
       </c>
       <c r="K117" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L117">
         <v>0.82337623834609996</v>
@@ -3906,13 +3918,13 @@
         <v>0.96483594179153398</v>
       </c>
       <c r="K118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L118">
         <v>0.99075210094451904</v>
       </c>
       <c r="M118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N118">
         <v>0.69668048620223999</v>
@@ -3920,13 +3932,13 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B119">
         <v>0.98061174154281605</v>
       </c>
       <c r="C119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D119">
         <v>0.78424519300460804</v>
@@ -3938,19 +3950,19 @@
         <v>0.71079087257385298</v>
       </c>
       <c r="G119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H119">
         <v>0.83626747131347701</v>
       </c>
       <c r="K119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L119">
         <v>0.98952788114547696</v>
       </c>
       <c r="M119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N119">
         <v>0.87747788429260298</v>
@@ -3958,13 +3970,13 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B120">
         <v>0.976210176944733</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120">
         <v>0.88339674472808805</v>
@@ -3976,13 +3988,13 @@
         <v>0.83476918935775801</v>
       </c>
       <c r="G120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H120">
         <v>0.99198019504547097</v>
       </c>
       <c r="K120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L120">
         <v>0.82403498888015703</v>
@@ -3990,31 +4002,31 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B121">
         <v>0.978396356105804</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F121">
         <v>0.54977583885192904</v>
       </c>
       <c r="G121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H121">
         <v>0.95308846235275302</v>
       </c>
       <c r="K121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L121">
         <v>0.96122634410858199</v>
       </c>
       <c r="M121" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N121">
         <v>0.97932440042495705</v>
@@ -4028,25 +4040,25 @@
         <v>0.68775129318237305</v>
       </c>
       <c r="E122" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F122">
         <v>0.68018513917922996</v>
       </c>
       <c r="G122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H122">
         <v>0.98779696226119995</v>
       </c>
       <c r="I122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J122">
         <v>0.88438022136688199</v>
       </c>
       <c r="K122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L122">
         <v>0.52746647596359297</v>
@@ -4054,13 +4066,13 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B123">
         <v>0.98044395446777299</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123">
         <v>0.90827548503875699</v>
@@ -4072,13 +4084,13 @@
         <v>0.97842228412628196</v>
       </c>
       <c r="G123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H123">
         <v>0.55581915378570601</v>
       </c>
       <c r="K123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L123">
         <v>0.60219728946685802</v>
@@ -4098,13 +4110,13 @@
         <v>0.945409715175629</v>
       </c>
       <c r="K124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L124">
         <v>0.978446364402771</v>
       </c>
       <c r="M124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N124">
         <v>0.50603926181793202</v>
@@ -4112,19 +4124,19 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E125" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F125">
         <v>0.87299209833145097</v>
       </c>
       <c r="G125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H125">
         <v>0.98949193954467796</v>
       </c>
       <c r="M125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N125">
         <v>0.95101267099380504</v>
@@ -4138,19 +4150,19 @@
         <v>0.97722488641738903</v>
       </c>
       <c r="G126" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H126">
         <v>0.70302075147628795</v>
       </c>
       <c r="I126" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J126">
         <v>0.73294520378112804</v>
       </c>
       <c r="K126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L126">
         <v>0.89799606800079301</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/he_wang_uipath_com/Documents/Documents/UiPath/NER_Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="8_{8F923E0A-DC6D-4BFA-8D32-959117BE8BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{690B8472-C8A9-4145-A67D-1E39024A974C}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="8_{8F923E0A-DC6D-4BFA-8D32-959117BE8BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85343306-FC75-4C2D-A7E0-086CECBDDA3C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3768" windowHeight="948" xr2:uid="{19432217-6069-4ECC-9443-D7ACF3E67193}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="265">
   <si>
     <t>Gender</t>
   </si>
@@ -94,21 +94,9 @@
     <t>30th of the 1st 1954</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>giving you a call back regarding the funeral cover quietly</t>
-  </si>
-  <si>
-    <t>follow up on that quote you requested on your funeral insurance</t>
-  </si>
-  <si>
     <t>Tony</t>
   </si>
   <si>
-    <t>following up on a request that</t>
-  </si>
-  <si>
     <t>non</t>
   </si>
   <si>
@@ -803,6 +791,45 @@
   </si>
   <si>
     <t>Mary</t>
+  </si>
+  <si>
+    <t>Recording</t>
+  </si>
+  <si>
+    <t>Recording_conf</t>
+  </si>
+  <si>
+    <t>that's</t>
+  </si>
+  <si>
+    <t>41 Lee St Blenheim</t>
+  </si>
+  <si>
+    <t>funeral cover</t>
+  </si>
+  <si>
+    <t>14 valleywood close</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Yep</t>
+  </si>
+  <si>
+    <t>2504 fifty one</t>
+  </si>
+  <si>
+    <t>60 Durham Creek</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>free funeral insurance quote</t>
+  </si>
+  <si>
+    <t>receive a quote for our funeral insurance</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1798371-0076-498B-A6AA-93771DA0FD56}">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -1170,7 +1197,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,8 +1240,14 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1222,135 +1255,195 @@
         <v>0.99372673034668002</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F2">
         <v>0.86470597982406605</v>
       </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H2">
         <v>0.976706743240356</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J2">
         <v>0.99189656972885099</v>
       </c>
       <c r="K2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L2">
         <v>0.98750823736190796</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2">
+        <v>0.61771214008331299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.94801002740859996</v>
+        <v>0.98764902353286699</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>0.97915422916412398</v>
+        <v>0.87927323579788197</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F3">
-        <v>0.97798174619674705</v>
+        <v>0.57995378971099898</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3">
-        <v>0.99006760120391801</v>
+        <v>0.99641990661621105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3">
+        <v>0.99414366483688399</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="L3">
-        <v>0.430196493864059</v>
+        <v>0.97359913587570202</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="N3">
-        <v>0.62026464939117398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.629361212253571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.83144414424896196</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>0.96582370996475198</v>
-      </c>
-      <c r="I4">
-        <v>14</v>
+        <v>0.995832979679108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <v>0.46578529477119401</v>
+      </c>
+      <c r="I4" t="s">
+        <v>257</v>
       </c>
       <c r="J4">
-        <v>0.93524050712585405</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4">
-        <v>0.97772866487503096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.99526321887970004</v>
+      </c>
+      <c r="K4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4">
+        <v>0.98654222488403298</v>
+      </c>
+      <c r="O4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P4">
+        <v>0.81789863109588601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.98419028520584095</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
+        <v>0.99510842561721802</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>0.89291882514953602</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5">
+        <v>0.79519337415695202</v>
+      </c>
+      <c r="G5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5">
+        <v>0.98486822843551602</v>
+      </c>
+      <c r="I5" t="s">
+        <v>261</v>
       </c>
       <c r="J5">
-        <v>0.56614214181900002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.98417466878891002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5">
+        <v>0.99617671966552701</v>
+      </c>
+      <c r="M5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5">
+        <v>0.88502687215805098</v>
+      </c>
+      <c r="O5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5">
+        <v>0.99999988079071001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.98482125997543302</v>
+        <v>0.983101546764374</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="F6">
-        <v>0.98657321929931596</v>
+        <v>0.89683693647384599</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L6">
-        <v>0.99000006914138805</v>
+        <v>0.99650877714157104</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="N6">
-        <v>0.74772208929061901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.87851887941360496</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>0.58578610420227095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +1451,7 @@
         <v>0.97140514850616499</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0.770541131496429</v>
@@ -1370,13 +1463,13 @@
         <v>0.78133338689804099</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>0.44400477409362799</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1477,7 @@
         <v>0.97871553897857699</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>0.96900105476379395</v>
@@ -1396,7 +1489,7 @@
         <v>0.95461881160736095</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>0.71574443578720104</v>
@@ -1408,13 +1501,13 @@
         <v>0.91967475414276101</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L8">
         <v>0.88847005367279097</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1422,47 +1515,47 @@
         <v>0.98636651039123502</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>0.56635284423828103</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N9">
         <v>0.95579689741134599</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L11">
         <v>0.57863634824752797</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12">
         <v>0.89561140537261996</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>0.97970062494277999</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12">
         <v>0.98840206861496005</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1470,31 +1563,31 @@
         <v>0.96907246112823497</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>0.93129569292068504</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>0.81539458036422696</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0.84975713491439797</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J13">
         <v>0.69784957170486495</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1502,19 +1595,19 @@
         <v>0.96357464790344205</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>0.92680650949478105</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>0.61366164684295699</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1522,37 +1615,37 @@
         <v>0.980044186115265</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>0.46994522213935902</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>0.63286221027374301</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0.79358512163162198</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L15">
         <v>0.98640519380569502</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>0.58873111009597801</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1653,7 @@
         <v>0.96677631139755205</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L16">
         <v>0.98484182357788097</v>
@@ -1580,13 +1673,13 @@
         <v>0.90324026346206698</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>0.99070072174072299</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>0.86904406547546398</v>
@@ -1600,19 +1693,19 @@
         <v>0.82519847154617298</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>0.94978076219558705</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H18">
         <v>0.98697042465210005</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L18">
         <v>0.66753375530242898</v>
@@ -1638,19 +1731,19 @@
         <v>0.97725242376327504</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H19">
         <v>0.65074461698532104</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L19">
         <v>0.84980148077011097</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>0.91983336210250899</v>
@@ -1664,31 +1757,31 @@
         <v>0.95210492610931396</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>0.829456686973572</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>0.91193795204162598</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>0.62764620780944802</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L20">
         <v>0.97673594951629605</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>0.94052767753601096</v>
@@ -1702,25 +1795,25 @@
         <v>0.989790499210358</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H21">
         <v>0.871360003948212</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>0.49754843115806602</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>0.95822614431381203</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>0.68079555034637496</v>
@@ -1746,13 +1839,13 @@
         <v>0.96466976404190097</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J22">
         <v>0.87883746623992898</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L22">
         <v>0.90328568220138605</v>
@@ -1760,7 +1853,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>0.572162985801697</v>
@@ -1772,13 +1865,13 @@
         <v>0.51230311393737804</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H23">
         <v>0.98318910598754905</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L23">
         <v>0.98241007328033403</v>
@@ -1792,19 +1885,19 @@
         <v>0.73155808448791504</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>0.79499638080596902</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <v>0.96558225154876698</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H24">
         <v>0.44058158993721003</v>
@@ -1818,25 +1911,25 @@
         <v>0.88738709688186601</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F25">
         <v>0.81102454662322998</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H25">
         <v>0.83801358938217196</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L25">
         <v>0.93449735641479503</v>
       </c>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N25">
         <v>0.97214150428771995</v>
@@ -1856,7 +1949,7 @@
         <v>0.90775537490844704</v>
       </c>
       <c r="K26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L26">
         <v>0.94583052396774303</v>
@@ -1882,7 +1975,7 @@
         <v>0.69456690549850497</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L27">
         <v>0.98604494333267201</v>
@@ -1908,19 +2001,19 @@
         <v>0.59838134050369296</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H28">
         <v>0.99031317234039296</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J28">
         <v>0.68020623922348</v>
       </c>
       <c r="K28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L28">
         <v>0.98225146532058705</v>
@@ -1934,13 +2027,13 @@
         <v>0.95296186208724998</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>0.48591995239257801</v>
       </c>
       <c r="K29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L29">
         <v>0.66258150339126598</v>
@@ -1954,7 +2047,7 @@
         <v>0.46299672126769997</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L30">
         <v>0.98454266786575295</v>
@@ -1974,19 +2067,19 @@
         <v>0.50504684448242199</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H31">
         <v>0.98684328794479403</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J31">
         <v>0.76504343748092696</v>
       </c>
       <c r="K31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L31">
         <v>0.86906307935714699</v>
@@ -2000,7 +2093,7 @@
         <v>0.98154586553573597</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H32">
         <v>0.93549865484237704</v>
@@ -2012,13 +2105,13 @@
         <v>0.66939860582351696</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L32">
         <v>0.79865497350692705</v>
       </c>
       <c r="M32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N32">
         <v>0.75187689065933205</v>
@@ -2044,13 +2137,13 @@
         <v>0.66849398612976096</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H33">
         <v>0.98625355958938599</v>
       </c>
       <c r="K33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L33">
         <v>0.99324822425842296</v>
@@ -2070,13 +2163,13 @@
         <v>0.97819042205810502</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H34">
         <v>0.96156859397888195</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L34">
         <v>0.88612622022628795</v>
@@ -2084,13 +2177,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H35">
         <v>0.58516710996627797</v>
       </c>
       <c r="M35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N35">
         <v>0.83063006401062001</v>
@@ -2110,13 +2203,13 @@
         <v>0.95344376564025901</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L36">
         <v>0.95502346754074097</v>
       </c>
       <c r="M36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N36">
         <v>0.67743968963623002</v>
@@ -2136,19 +2229,19 @@
         <v>0.97511625289917003</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H37">
         <v>0.98105317354202304</v>
       </c>
       <c r="K37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L37">
         <v>0.95190179347991899</v>
       </c>
       <c r="M37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N37">
         <v>0.84860020875930797</v>
@@ -2162,7 +2255,7 @@
         <v>0.98539739847183205</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D38">
         <v>0.39347484707832298</v>
@@ -2188,25 +2281,25 @@
         <v>0.97055691480636597</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D39">
         <v>0.58969539403915405</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F39">
         <v>0.53598320484161399</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H39">
         <v>0.99113410711288497</v>
       </c>
       <c r="K39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L39">
         <v>0.89490503072738603</v>
@@ -2214,7 +2307,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F40">
         <v>0.95650619268417403</v>
@@ -2228,19 +2321,19 @@
         <v>0.490685194730759</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D41">
         <v>0.64207559823989901</v>
       </c>
       <c r="K41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L41">
         <v>0.50173288583755504</v>
       </c>
       <c r="M41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N41">
         <v>0.82389575242996205</v>
@@ -2254,7 +2347,7 @@
         <v>0.91523164510726895</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H42">
         <v>0.91768264770507801</v>
@@ -2274,7 +2367,7 @@
         <v>0.772641241550446</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H43">
         <v>0.98653656244277999</v>
@@ -2286,7 +2379,7 @@
         <v>0.70372128486633301</v>
       </c>
       <c r="K43" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L43">
         <v>0.98315411806106601</v>
@@ -2306,31 +2399,31 @@
         <v>0.96241462230682395</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F44">
         <v>0.85834497213363603</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H44">
         <v>0.99000787734985396</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J44">
         <v>0.885198473930359</v>
       </c>
       <c r="K44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L44">
         <v>0.88177967071533203</v>
       </c>
       <c r="M44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N44">
         <v>0.49590295553207397</v>
@@ -2344,13 +2437,13 @@
         <v>0.63808983564376798</v>
       </c>
       <c r="G45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H45">
         <v>0.90553802251815796</v>
       </c>
       <c r="M45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N45">
         <v>0.69705039262771595</v>
@@ -2370,7 +2463,7 @@
         <v>0.98526602983474698</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H46">
         <v>0.92165046930313099</v>
@@ -2382,13 +2475,13 @@
         <v>0.76290637254714999</v>
       </c>
       <c r="K46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L46">
         <v>0.56467813253402699</v>
       </c>
       <c r="M46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N46">
         <v>0.56299203634262096</v>
@@ -2396,19 +2489,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F47">
         <v>0.94000065326690696</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H47">
         <v>0.99083286523819003</v>
       </c>
       <c r="K47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L47">
         <v>0.76632422208786</v>
@@ -2422,19 +2515,19 @@
         <v>0.960035860538483</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H48">
         <v>0.56670081615447998</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J48">
         <v>0.95605432987213101</v>
       </c>
       <c r="K48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L48">
         <v>0.98803210258483898</v>
@@ -2442,7 +2535,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M49" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N49">
         <v>0.77613323926925704</v>
@@ -2456,7 +2549,7 @@
         <v>0.98021644353866599</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>0.85202628374099698</v>
@@ -2468,13 +2561,13 @@
         <v>0.92249470949172996</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H50">
         <v>0.976465284824371</v>
       </c>
       <c r="K50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L50">
         <v>0.98995870351791404</v>
@@ -2494,13 +2587,13 @@
         <v>0.98571902513503995</v>
       </c>
       <c r="G51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H51">
         <v>0.98792821168899503</v>
       </c>
       <c r="K51" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L51">
         <v>0.92249614000320401</v>
@@ -2526,7 +2619,7 @@
         <v>0.489212155342102</v>
       </c>
       <c r="K52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L52">
         <v>0.98714476823806796</v>
@@ -2540,13 +2633,13 @@
         <v>0.91925978660583496</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F53">
         <v>0.94105929136276201</v>
       </c>
       <c r="G53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H53">
         <v>0.99093401432037398</v>
@@ -2558,7 +2651,7 @@
         <v>0.48264941573143</v>
       </c>
       <c r="K53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L53">
         <v>0.95640397071838401</v>
@@ -2572,19 +2665,19 @@
         <v>0.85488033294677701</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F54">
         <v>0.967188000679016</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H54">
         <v>0.99158561229705799</v>
       </c>
       <c r="K54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L54">
         <v>0.95369166135787997</v>
@@ -2592,7 +2685,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L56">
         <v>0.55441766977310203</v>
@@ -2618,13 +2711,13 @@
         <v>0.93106812238693204</v>
       </c>
       <c r="G58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H58">
         <v>0.9918212890625</v>
       </c>
       <c r="K58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L58">
         <v>0.50700265169143699</v>
@@ -2644,13 +2737,13 @@
         <v>0.97359383106231701</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J59">
         <v>0.98141092061996504</v>
       </c>
       <c r="K59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L59">
         <v>0.77895855903625499</v>
@@ -2664,7 +2757,7 @@
         <v>0.91565895080566395</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D60">
         <v>0.57601618766784701</v>
@@ -2690,25 +2783,25 @@
         <v>0.72397422790527299</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F61">
         <v>0.544719219207764</v>
       </c>
       <c r="G61" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H61">
         <v>0.99149137735366799</v>
       </c>
       <c r="I61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J61">
         <v>0.98841524124145497</v>
       </c>
       <c r="K61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L61">
         <v>0.72072440385818504</v>
@@ -2728,19 +2821,19 @@
         <v>0.93924599885940596</v>
       </c>
       <c r="G62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H62">
         <v>0.99059641361236594</v>
       </c>
       <c r="K62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L62">
         <v>0.53311568498611495</v>
       </c>
       <c r="M62" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N62">
         <v>0.92323404550552401</v>
@@ -2754,19 +2847,19 @@
         <v>0.54234534502029397</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H63">
         <v>0.96552658081054699</v>
       </c>
       <c r="K63" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L63">
         <v>0.34495154023170499</v>
       </c>
       <c r="M63" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N63">
         <v>0.70886886119842496</v>
@@ -2780,19 +2873,19 @@
         <v>0.89466786384582497</v>
       </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H64">
         <v>0.69120627641677901</v>
       </c>
       <c r="I64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J64">
         <v>0.90107798576355003</v>
       </c>
       <c r="M64" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N64">
         <v>0.74662327766418501</v>
@@ -2818,13 +2911,13 @@
         <v>0.98369044065475497</v>
       </c>
       <c r="I65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J65">
         <v>0.807381451129913</v>
       </c>
       <c r="K65" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L65">
         <v>0.865001320838928</v>
@@ -2838,19 +2931,19 @@
         <v>0.98241490125656095</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D66">
         <v>0.81935304403305098</v>
       </c>
       <c r="K66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L66">
         <v>0.35959538817405701</v>
       </c>
       <c r="M66" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N66">
         <v>0.978124499320984</v>
@@ -2870,25 +2963,25 @@
         <v>0.93303757905960105</v>
       </c>
       <c r="E67" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F67">
         <v>0.49406614899635298</v>
       </c>
       <c r="G67" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H67">
         <v>0.95349740982055697</v>
       </c>
       <c r="I67" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J67">
         <v>0.64455014467239402</v>
       </c>
       <c r="K67" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L67">
         <v>0.95822823047637895</v>
@@ -2902,13 +2995,13 @@
         <v>0.952817022800446</v>
       </c>
       <c r="K70" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L70">
         <v>0.92975896596908603</v>
       </c>
       <c r="M70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N70">
         <v>0.98583763837814298</v>
@@ -2928,13 +3021,13 @@
         <v>0.96459507942199696</v>
       </c>
       <c r="K71" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L71">
         <v>0.98702907562255904</v>
       </c>
       <c r="M71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N71">
         <v>0.84688758850097701</v>
@@ -2954,7 +3047,7 @@
         <v>0.92730796337127697</v>
       </c>
       <c r="K72" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L72">
         <v>0.97311609983444203</v>
@@ -2968,13 +3061,13 @@
         <v>0.98280990123748802</v>
       </c>
       <c r="G73" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H73">
         <v>0.990553438663483</v>
       </c>
       <c r="K73" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L73">
         <v>0.87121838331222501</v>
@@ -2982,7 +3075,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K74" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L74">
         <v>0.85556739568710305</v>
@@ -2996,13 +3089,13 @@
         <v>0.93637490272521995</v>
       </c>
       <c r="G75" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H75">
         <v>0.96137839555740401</v>
       </c>
       <c r="I75" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J75">
         <v>0.406154274940491</v>
@@ -3022,19 +3115,19 @@
         <v>0.98885333538055398</v>
       </c>
       <c r="I76" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J76">
         <v>0.98649579286575295</v>
       </c>
       <c r="K76" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L76">
         <v>0.98324292898178101</v>
       </c>
       <c r="M76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N76">
         <v>0.41632929444312999</v>
@@ -3042,13 +3135,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K77" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L77">
         <v>0.85503113269805897</v>
       </c>
       <c r="M77" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N77">
         <v>0.83999723196029696</v>
@@ -3068,13 +3161,13 @@
         <v>0.97807019948959395</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78">
         <v>0.58935177326202404</v>
       </c>
       <c r="K78" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L78">
         <v>0.84529572725295998</v>
@@ -3088,25 +3181,25 @@
         <v>0.89553987979888905</v>
       </c>
       <c r="G79" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H79">
         <v>0.837213695049286</v>
       </c>
       <c r="I79" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J79">
         <v>0.96132969856262196</v>
       </c>
       <c r="K79" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L79">
         <v>0.91678047180175803</v>
       </c>
       <c r="M79" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N79">
         <v>0.90404254198074296</v>
@@ -3120,19 +3213,19 @@
         <v>0.97324490547180198</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D80">
         <v>0.76604825258255005</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H80">
         <v>0.98942542076110795</v>
       </c>
       <c r="K80" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L80">
         <v>0.70345312356948897</v>
@@ -3152,19 +3245,19 @@
         <v>0.96003443002700795</v>
       </c>
       <c r="G81" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H81">
         <v>0.93230289220809903</v>
       </c>
       <c r="I81" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J81">
         <v>0.96360051631927501</v>
       </c>
       <c r="M81" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N81">
         <v>0.90577590465545699</v>
@@ -3190,19 +3283,19 @@
         <v>0.95276045799255404</v>
       </c>
       <c r="G82" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H82">
         <v>0.98815208673477195</v>
       </c>
       <c r="K82" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L82">
         <v>0.89313900470733598</v>
       </c>
       <c r="M82" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N82">
         <v>0.49063825607299799</v>
@@ -3210,13 +3303,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I83" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J83">
         <v>0.98316055536270097</v>
       </c>
       <c r="K83" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L83">
         <v>0.65263861417770397</v>
@@ -3230,19 +3323,19 @@
         <v>0.90541082620620705</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D84">
         <v>0.938177049160004</v>
       </c>
       <c r="K84" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L84">
         <v>0.97923034429550204</v>
       </c>
       <c r="M84" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N84">
         <v>0.49889820814132702</v>
@@ -3262,13 +3355,13 @@
         <v>0.56497180461883501</v>
       </c>
       <c r="K85" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L85">
         <v>0.94643133878707897</v>
       </c>
       <c r="M85" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N85">
         <v>0.51665443181991599</v>
@@ -3276,13 +3369,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H86">
         <v>0.76456981897354104</v>
       </c>
       <c r="K86" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L86">
         <v>0.94223701953887895</v>
@@ -3296,13 +3389,13 @@
         <v>0.92778068780899003</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F88">
         <v>0.80411970615386996</v>
       </c>
       <c r="G88" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H88">
         <v>0.98248183727264404</v>
@@ -3322,19 +3415,19 @@
         <v>0.98451751470565796</v>
       </c>
       <c r="G89" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H89">
         <v>0.97429490089416504</v>
       </c>
       <c r="K89" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L89">
         <v>0.50921267271041903</v>
       </c>
       <c r="M89" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N89">
         <v>0.61720651388168302</v>
@@ -3342,13 +3435,13 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G91" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H91">
         <v>0.46851316094398499</v>
       </c>
       <c r="K91" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L91">
         <v>0.98276847600936901</v>
@@ -3362,7 +3455,7 @@
         <v>0.63214027881622303</v>
       </c>
       <c r="K92" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L92">
         <v>0.97626590728759799</v>
@@ -3382,7 +3475,7 @@
         <v>0.98652726411819502</v>
       </c>
       <c r="K93" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L93">
         <v>0.70122247934341397</v>
@@ -3396,19 +3489,19 @@
         <v>0.97810012102127097</v>
       </c>
       <c r="E94" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F94">
         <v>0.78881126642227195</v>
       </c>
       <c r="K94" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L94">
         <v>0.97122228145599399</v>
       </c>
       <c r="M94" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N94">
         <v>0.43452253937721302</v>
@@ -3422,19 +3515,19 @@
         <v>0.98183661699295</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F95">
         <v>0.96363383531570401</v>
       </c>
       <c r="K95" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L95">
         <v>0.84384727478027299</v>
       </c>
       <c r="M95" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N95">
         <v>0.660217225551605</v>
@@ -3442,7 +3535,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K96" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L96">
         <v>0.71058374643325795</v>
@@ -3450,7 +3543,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K97" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L97">
         <v>0.77514904737472501</v>
@@ -3472,7 +3565,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K99" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L99">
         <v>0.66772848367690996</v>
@@ -3492,25 +3585,25 @@
         <v>0.91061806678771995</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F100">
         <v>0.75282567739486705</v>
       </c>
       <c r="I100" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J100">
         <v>0.70379233360290505</v>
       </c>
       <c r="K100" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L100">
         <v>0.967695832252502</v>
       </c>
       <c r="M100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N100">
         <v>0.72190111875534102</v>
@@ -3524,31 +3617,31 @@
         <v>0.980096995830536</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D101">
         <v>0.51993006467819203</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F101">
         <v>0.49474772810936002</v>
       </c>
       <c r="G101" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H101">
         <v>0.71867728233337402</v>
       </c>
       <c r="K101" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L101">
         <v>0.50522440671920799</v>
       </c>
       <c r="M101" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N101">
         <v>0.451026290655136</v>
@@ -3556,7 +3649,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K102" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L102">
         <v>0.82974743843078602</v>
@@ -3570,7 +3663,7 @@
         <v>0.94187277555465698</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D103">
         <v>0.90708136558532704</v>
@@ -3584,7 +3677,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K104" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L104">
         <v>0.651322841644287</v>
@@ -3598,19 +3691,19 @@
         <v>0.97285199165344205</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D105">
         <v>0.52113860845565796</v>
       </c>
       <c r="E105" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F105">
         <v>0.85362988710403398</v>
       </c>
       <c r="G105" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H105">
         <v>0.56572133302688599</v>
@@ -3630,25 +3723,25 @@
         <v>0.97095608711242698</v>
       </c>
       <c r="G106" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H106">
         <v>0.72361320257186901</v>
       </c>
       <c r="I106" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J106">
         <v>0.98933929204940796</v>
       </c>
       <c r="K106" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L106">
         <v>0.95235460996627797</v>
       </c>
       <c r="M106" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N106">
         <v>0.44328948855400102</v>
@@ -3668,13 +3761,13 @@
         <v>0.97532755136489901</v>
       </c>
       <c r="E107" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F107">
         <v>0.84243017435073897</v>
       </c>
       <c r="G107" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H107">
         <v>0.99087649583816495</v>
@@ -3688,7 +3781,7 @@
         <v>0.92096269130706798</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D108">
         <v>0.64297264814376798</v>
@@ -3700,13 +3793,13 @@
         <v>0.70564669370651201</v>
       </c>
       <c r="G108" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H108">
         <v>0.95733547210693404</v>
       </c>
       <c r="K108" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L108">
         <v>0.84054392576217696</v>
@@ -3726,13 +3819,13 @@
         <v>0.71869349479675304</v>
       </c>
       <c r="G109" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H109">
         <v>0.98657900094985995</v>
       </c>
       <c r="K109" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L109">
         <v>0.97236418724060103</v>
@@ -3752,7 +3845,7 @@
         <v>0.98219174146652199</v>
       </c>
       <c r="M110" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N110">
         <v>0.93219733238220204</v>
@@ -3766,7 +3859,7 @@
         <v>0.98051947355270397</v>
       </c>
       <c r="G111" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H111">
         <v>0.836436748504639</v>
@@ -3778,7 +3871,7 @@
         <v>0.80487149953842196</v>
       </c>
       <c r="K111" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L111">
         <v>0.84027236700057995</v>
@@ -3792,7 +3885,7 @@
         <v>0.94689977169036899</v>
       </c>
       <c r="K112" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L112">
         <v>0.97104227542877197</v>
@@ -3806,13 +3899,13 @@
         <v>0.98659026622772195</v>
       </c>
       <c r="G113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H113">
         <v>0.82890385389328003</v>
       </c>
       <c r="M113" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N113">
         <v>0.91508370637893699</v>
@@ -3832,13 +3925,13 @@
         <v>0.98146098852157604</v>
       </c>
       <c r="G114" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H114">
         <v>0.99275004863739003</v>
       </c>
       <c r="K114" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L114">
         <v>0.78693681955337502</v>
@@ -3852,7 +3945,7 @@
         <v>0.71724462509155296</v>
       </c>
       <c r="K115" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L115">
         <v>0.69880878925323497</v>
@@ -3866,19 +3959,19 @@
         <v>0.96786892414092995</v>
       </c>
       <c r="E116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F116">
         <v>0.31457862257957497</v>
       </c>
       <c r="K116" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L116">
         <v>0.97980999946594205</v>
       </c>
       <c r="M116" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N116">
         <v>0.94562351703643799</v>
@@ -3892,13 +3985,13 @@
         <v>0.92816686630249001</v>
       </c>
       <c r="C117" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D117">
         <v>0.89441889524459794</v>
       </c>
       <c r="K117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L117">
         <v>0.82337623834609996</v>
@@ -3918,13 +4011,13 @@
         <v>0.96483594179153398</v>
       </c>
       <c r="K118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L118">
         <v>0.99075210094451904</v>
       </c>
       <c r="M118" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N118">
         <v>0.69668048620223999</v>
@@ -3938,7 +4031,7 @@
         <v>0.98061174154281605</v>
       </c>
       <c r="C119" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D119">
         <v>0.78424519300460804</v>
@@ -3950,19 +4043,19 @@
         <v>0.71079087257385298</v>
       </c>
       <c r="G119" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H119">
         <v>0.83626747131347701</v>
       </c>
       <c r="K119" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L119">
         <v>0.98952788114547696</v>
       </c>
       <c r="M119" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N119">
         <v>0.87747788429260298</v>
@@ -3976,7 +4069,7 @@
         <v>0.976210176944733</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D120">
         <v>0.88339674472808805</v>
@@ -3988,13 +4081,13 @@
         <v>0.83476918935775801</v>
       </c>
       <c r="G120" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H120">
         <v>0.99198019504547097</v>
       </c>
       <c r="K120" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L120">
         <v>0.82403498888015703</v>
@@ -4008,25 +4101,25 @@
         <v>0.978396356105804</v>
       </c>
       <c r="E121" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F121">
         <v>0.54977583885192904</v>
       </c>
       <c r="G121" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H121">
         <v>0.95308846235275302</v>
       </c>
       <c r="K121" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L121">
         <v>0.96122634410858199</v>
       </c>
       <c r="M121" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N121">
         <v>0.97932440042495705</v>
@@ -4040,25 +4133,25 @@
         <v>0.68775129318237305</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F122">
         <v>0.68018513917922996</v>
       </c>
       <c r="G122" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H122">
         <v>0.98779696226119995</v>
       </c>
       <c r="I122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J122">
         <v>0.88438022136688199</v>
       </c>
       <c r="K122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L122">
         <v>0.52746647596359297</v>
@@ -4072,7 +4165,7 @@
         <v>0.98044395446777299</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D123">
         <v>0.90827548503875699</v>
@@ -4084,13 +4177,13 @@
         <v>0.97842228412628196</v>
       </c>
       <c r="G123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H123">
         <v>0.55581915378570601</v>
       </c>
       <c r="K123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L123">
         <v>0.60219728946685802</v>
@@ -4110,13 +4203,13 @@
         <v>0.945409715175629</v>
       </c>
       <c r="K124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L124">
         <v>0.978446364402771</v>
       </c>
       <c r="M124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N124">
         <v>0.50603926181793202</v>
@@ -4124,19 +4217,19 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125">
         <v>0.87299209833145097</v>
       </c>
       <c r="G125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H125">
         <v>0.98949193954467796</v>
       </c>
       <c r="M125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N125">
         <v>0.95101267099380504</v>
@@ -4150,19 +4243,19 @@
         <v>0.97722488641738903</v>
       </c>
       <c r="G126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H126">
         <v>0.70302075147628795</v>
       </c>
       <c r="I126" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J126">
         <v>0.73294520378112804</v>
       </c>
       <c r="K126" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L126">
         <v>0.89799606800079301</v>
